--- a/trend_results/Rivers/MakotukuatRaetihi_07deeedf43.xlsx
+++ b/trend_results/Rivers/MakotukuatRaetihi_07deeedf43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.731491188773981</v>
+        <v>0.268508811226019</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.584523263705316</v>
+        <v>0.415476736294684</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.275385407883779</v>
+        <v>0.724614592116221</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5</v>
+        <v>0.501624696022106</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.651162790697674</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.296</v>
+        <v>24.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0043376206245464</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0935262416496431</v>
+        <v>-0.888936934240957</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0468782036188287</v>
+        <v>0.822378372735048</v>
       </c>
       <c r="N30" t="n">
-        <v>1.4654123731576</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3175,7 +3175,11 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.40324797025367</v>
+        <v>0.667139025323721</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.392405063291139</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.09657041778976</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-10.2228965231001</v>
+        <v>-0.0244719180121543</v>
       </c>
       <c r="M31" t="n">
-        <v>2.82977840976592</v>
+        <v>0.050066717269852</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.11894940590791</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3262,7 +3266,11 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.889664319040077</v>
+        <v>6.3890644588005e-05</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.819767441860465</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.68</v>
+        <v>10.925</v>
       </c>
       <c r="K32" t="n">
-        <v>0.380636251965409</v>
+        <v>-0.0549248120300749</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.398057411643373</v>
+        <v>-0.0828548368872479</v>
       </c>
       <c r="M32" t="n">
-        <v>0.8500853302038039</v>
+        <v>-0.0332375190076508</v>
       </c>
       <c r="N32" t="n">
-        <v>10.3433764121035</v>
+        <v>-0.502744274874827</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.984088436306755</v>
+        <v>3.4876596175726e-08</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="H33" t="n">
+        <v>0.142857142857143</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.26</v>
+        <v>0.007</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0222238245752667</v>
+        <v>0.0004209334869937</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0118374532486608</v>
+        <v>0.0002849647322916</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0349927806884994</v>
+        <v>0.0005569897097445</v>
       </c>
       <c r="N33" t="n">
-        <v>8.547624836641029</v>
+        <v>6.01333552848205</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.975451009195367</v>
+        <v>0.236356210747952</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0057471264367816</v>
       </c>
       <c r="H34" t="n">
+        <v>0.701149425287356</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
-        <v>90.5</v>
+        <v>197</v>
       </c>
       <c r="K34" t="n">
-        <v>3.06197604790419</v>
+        <v>2.23752815625567</v>
       </c>
       <c r="L34" t="n">
-        <v>0.635487941317863</v>
+        <v>-2.49549736068188</v>
       </c>
       <c r="M34" t="n">
-        <v>4.49607671459464</v>
+        <v>6.1307120902156</v>
       </c>
       <c r="N34" t="n">
-        <v>3.38339894796043</v>
+        <v>1.13580109454603</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5</v>
+        <v>0.533860003459751</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.898203592814371</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.143712574850299</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
-        <v>3.65</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0067389298892989</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.151138860460924</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.109112203985082</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.184628216145177</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3610,7 +3630,1253 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0273961626792581</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.307692307692308</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.108974358974359</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>9.91988049972841e-05</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.412117797099166</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.911949685534591</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0004997152880748999</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0035120192307692</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.005281707209868</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.14116251075564</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.953186965967234</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.611764705882353</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0133265506595565</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.028217934288136</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.173522795046309</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Extremely likely increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.338884017967779</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.822857142857143</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0008354289187855</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0028357250583618</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0047540428662845</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.232063588551551</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.929254460054052</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.577142857142857</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.004723098912738</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.008790559562974899</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.944619782547608</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.234913518421475</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.222857142857143</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-7.90320358785762e-05</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0003202303440215</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8013776054953879</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.782857142857143</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0070511583011583</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0219908716229223</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0071299971803105</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.677995990495991</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0043376206245464</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0935262416496431</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0468782036188287</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.4654123731576</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>98</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-1.09657041778976</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-10.2228965231001</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.82977840976592</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1.11894940590791</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.380636251965409</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.398057411643373</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.8500853302038039</v>
+      </c>
+      <c r="N45" t="n">
+        <v>10.3433764121035</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.984088436306755</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0222238245752667</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0118374532486608</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0349927806884994</v>
+      </c>
+      <c r="N46" t="n">
+        <v>8.547624836641029</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.975451009195367</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.06197604790419</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.635487941317863</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4.49607671459464</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.38339894796043</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0067389298892989</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.151138860460924</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.109112203985082</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.184628216145177</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Makotuku at Raetihi</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.649432865344804</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>91</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.473735408560311</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-1.27578779781604</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.94901602162399</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.5205883610552871</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1796445</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5634016</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MakotukuatRaetihi_07deeedf43.xlsx
+++ b/trend_results/Rivers/MakotukuatRaetihi_07deeedf43.xlsx
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0.396250230183014</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.837209302325581</v>
+        <v>0.8409090909090911</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31</v>
+        <v>29.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.84439304567981</v>
       </c>
       <c r="L2" t="n">
-        <v>-5.57664489949118</v>
+        <v>-3.8046875</v>
       </c>
       <c r="M2" t="n">
-        <v>4.76412834676513</v>
+        <v>7.12236138628673</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.86234930738919</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.859647705249681</v>
+        <v>0.147494642842708</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.446428571428571</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.102061385529822</v>
+        <v>-0.140181236673774</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0.450287286420275</v>
       </c>
       <c r="M3" t="n">
-        <v>0.349540531110622</v>
+        <v>0.0546982278348637</v>
       </c>
       <c r="N3" t="n">
-        <v>5.10306927649108</v>
+        <v>-6.37187439426245</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>0.115868544195546</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.913793103448276</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.66</v>
+        <v>10.72</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0066895604395605</v>
+        <v>-0.107353041695147</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.14847590110584</v>
+        <v>-0.191709240612765</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08814684666279859</v>
+        <v>0.0451878554354992</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0627538502773039</v>
+        <v>-1.00142762775324</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,17 +842,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0810969491910502</v>
+        <v>0.346752361627455</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.355932203389831</v>
+        <v>0.338983050847458</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0.008</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0006820728291316</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0.0005028465877002</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0016143315986227</v>
+        <v>0.0008027472527472</v>
       </c>
       <c r="N5" t="n">
-        <v>8.52591036414565</v>
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -929,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.567520671698416</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H6" t="n">
-        <v>0.847457627118644</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="K6" t="n">
-        <v>-4.42191283292978</v>
+        <v>-3.0103021978022</v>
       </c>
       <c r="L6" t="n">
-        <v>-33.0363493143358</v>
+        <v>-30.9085666811499</v>
       </c>
       <c r="M6" t="n">
-        <v>23.300600944036</v>
+        <v>23.4395463457841</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.21095641646489</v>
+        <v>-1.4001405571173</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.149879185044358</v>
+        <v>0.0336211830048579</v>
       </c>
       <c r="G7" t="n">
-        <v>0.890909090909091</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="H7" t="n">
-        <v>0.163636363636364</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1111,18 +1111,18 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.78163111403296</v>
+        <v>0.9956673852162859</v>
       </c>
       <c r="G8" t="n">
-        <v>0.203389830508475</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="H8" t="n">
         <v>0.101694915254237</v>
@@ -1134,16 +1134,16 @@
         <v>0.003</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.000332650273224</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.000332531276354</v>
+        <v>-0.0005997536945812</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-11.0883424408015</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0256741662816303</v>
+        <v>3.60445964434052e-05</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9830508474576271</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1225,16 +1225,16 @@
         <v>0.344</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0122920673076923</v>
+        <v>0.0571421934413309</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0021815099279685</v>
+        <v>0.0339214317736503</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0338592044579395</v>
+        <v>0.0756471232464405</v>
       </c>
       <c r="N9" t="n">
-        <v>3.57327538014311</v>
+        <v>16.6111027445729</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.268508811226019</v>
+        <v>0.108471939382853</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.758620689655172</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.71</v>
+        <v>7.695</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0201239669421483</v>
+        <v>-0.0378105590062117</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.07416017398492029</v>
+        <v>-0.103933313817302</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0453932175163391</v>
+        <v>0.01568233272631</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.261011244385841</v>
+        <v>-0.491365289229522</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1388,13 +1388,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0086195102792954</v>
+        <v>1.03151239012525e-05</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.915254237288136</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1403,16 +1403,16 @@
         <v>0.355</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0156810540176384</v>
+        <v>0.0579483173076923</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0027052590738098</v>
+        <v>0.0338544660060418</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0385326076883388</v>
+        <v>0.0721287389184188</v>
       </c>
       <c r="N11" t="n">
-        <v>4.41719831482772</v>
+        <v>16.3234696641387</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9217945406476939</v>
+        <v>5.91909907084788e-08</v>
       </c>
       <c r="G12" t="n">
-        <v>0.423728813559322</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.203389830508475</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>0.51</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0587170772775612</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.272459638846438</v>
+        <v>0.0447244897959184</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0766047672202623</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>11.5131524073649</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.107514991185651</v>
+        <v>0.008349936217039</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6949152542372879</v>
+        <v>0.440677966101695</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>0.017</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0100343406593407</v>
+        <v>0.001665273556231</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0050146791284138</v>
+        <v>0.0004303586363237</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0336636730084797</v>
+        <v>0.0030219140702507</v>
       </c>
       <c r="N13" t="n">
-        <v>2.00686813186813</v>
+        <v>9.795726801358841</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1657,35 +1657,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0278181887715652</v>
+        <v>0.468715329028129</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.440677966101695</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.016</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001571643717728</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-0.0490897524972727</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0031936982204889</v>
+        <v>0.07233746788117081</v>
       </c>
       <c r="N14" t="n">
-        <v>9.82277323580035</v>
+        <v>0</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.836739843784771</v>
+        <v>0.188838724346568</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.847457627118644</v>
+        <v>0.690721649484536</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.99</v>
+        <v>24.5</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0375140056022409</v>
+        <v>0.724522732370092</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.109753823990313</v>
+        <v>-0.666881275233384</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0332945892923463</v>
+        <v>2.2313204887218</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.78929349517585</v>
+        <v>2.95723564232691</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1839,35 +1839,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.391491701394881</v>
+        <v>0.49531050147427</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="H16" t="n">
-        <v>0.708333333333333</v>
+        <v>0.435643564356436</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.213936439121699</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.19722876979857</v>
+        <v>-0.0613636022360519</v>
       </c>
       <c r="M16" t="n">
-        <v>1.65625299067596</v>
+        <v>0.0973812179459953</v>
       </c>
       <c r="N16" t="n">
-        <v>0.891401829673746</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.847468896235858</v>
+        <v>0.757661542782937</v>
       </c>
       <c r="G17" t="n">
-        <v>0.018348623853211</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.394495412844037</v>
+        <v>0.836206896551724</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>10.69</v>
       </c>
       <c r="K17" t="n">
-        <v>0.045038015019766</v>
+        <v>0.0200045641259697</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-0.0287929092310857</v>
       </c>
       <c r="M17" t="n">
-        <v>0.11681447950924</v>
+        <v>0.0499316473000682</v>
       </c>
       <c r="N17" t="n">
-        <v>2.2519007509883</v>
+        <v>0.187133434293449</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,14 +2010,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.415476736294684</v>
+        <v>0.988012051281587</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.863247863247863</v>
+        <v>0.226890756302521</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.71</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0041674423833015</v>
+        <v>-0.0003525579150579</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0410034643561002</v>
+        <v>-0.0006067275747508</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0351201923076924</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0389116935882501</v>
+        <v>-3.91731016731017</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8298729478250561</v>
+        <v>0.0348943534634941</v>
       </c>
       <c r="G19" t="n">
-        <v>0.100840336134454</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H19" t="n">
-        <v>0.210084033613445</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.008999999999999999</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0001245311967269</v>
+        <v>7.98583678164354</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0004993164730006</v>
+        <v>0.999816851842286</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>16.5523954023155</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.38367996363223</v>
+        <v>3.99291839082177</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.15773009649494</v>
+        <v>0.0187669586463041</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008474576271186401</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="H20" t="n">
-        <v>0.728813559322034</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>195</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>6.59851388109113</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-4.28482558049049</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>14.9635888968243</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.38385327235442</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.065899154259712</v>
+        <v>0.999889912550545</v>
       </c>
       <c r="G21" t="n">
-        <v>0.929203539823009</v>
+        <v>0.168067226890756</v>
       </c>
       <c r="H21" t="n">
-        <v>0.123893805309735</v>
+        <v>0.126050420168067</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0002038225446428</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0003078381795195</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-6.79408482142857</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,46 +2374,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.995501610345861</v>
+        <v>0.0093922209163464</v>
       </c>
       <c r="G22" t="n">
-        <v>0.134453781512605</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.134453781512605</v>
+        <v>0.957983193277311</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.003</v>
+        <v>0.354</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0001410231660231</v>
+        <v>0.0103027752502275</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0002675824175824</v>
+        <v>0.003655770834398</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0143491150916819</v>
       </c>
       <c r="N22" t="n">
-        <v>-4.7007722007722</v>
+        <v>2.91038848876482</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.160567080492536</v>
+        <v>0.712959743498235</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.974789915966387</v>
+        <v>0.658119658119658</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3401</v>
+        <v>7.69</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0043205186533212</v>
+        <v>0.0044407294832826</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.002508592822175</v>
+        <v>-0.0187491863794096</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0102031920925811</v>
+        <v>0.0269732724032449</v>
       </c>
       <c r="N23" t="n">
-        <v>1.27036714299359</v>
+        <v>0.0577468073248723</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.724614592116221</v>
+        <v>0.0035517996912216</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.681034482758621</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.69</v>
+        <v>0.36</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0073490945674044</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0156930249990938</v>
+        <v>0.0040137362637362</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0289383458579237</v>
+        <v>0.017085718086267</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0955668994460922</v>
+        <v>2.78731684981685</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.07529536526545121</v>
+        <v>0.186862889442466</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.831932773109244</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.355</v>
+        <v>0.52</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0043205186533212</v>
+        <v>0.004214423076923</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0007980443628147</v>
+        <v>-0.004012746585921</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0100322892285976</v>
+        <v>0.0132758490825502</v>
       </c>
       <c r="N25" t="n">
-        <v>1.2170475079778</v>
+        <v>0.810465976331361</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2745,35 +2745,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.902749879962036</v>
+        <v>0.0437927796066939</v>
       </c>
       <c r="G26" t="n">
-        <v>0.352941176470588</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H26" t="n">
-        <v>0.159663865546218</v>
+        <v>0.277310924369748</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.016</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.0003557629870129</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0007826785714285</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.22351866883117</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.813137110557534</v>
+        <v>0.208066793695338</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.65546218487395</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.499</v>
+        <v>0.97</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0039983579638752</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0114234136609</v>
+        <v>-0.0110826940440687</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0019991789819376</v>
+        <v>0.0344940622668582</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.801274141057156</v>
+        <v>1.03446810921038</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.283209590564028</v>
+        <v>0.424801547479569</v>
       </c>
       <c r="G28" t="n">
-        <v>0.008403361344537799</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.260504201680672</v>
+        <v>0.630434782608696</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.015</v>
+        <v>24.75</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.0598378112712975</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0001956945669604</v>
+        <v>-0.696828724840039</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0005357898289255</v>
+        <v>0.9010208661682561</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.241768934429485</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,43 +3007,43 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.482594792618315</v>
+        <v>0.574030156594365</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0197368421052632</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8151260504201679</v>
+        <v>0.388157894736842</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>0.98</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0228477968612976</v>
+        <v>-0.0315826908358741</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0237175324675325</v>
+        <v>0.0486420902401499</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.501624696022106</v>
+        <v>0.0037573458595869</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.651162790697674</v>
+        <v>0.798850574712644</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.5</v>
+        <v>10.82</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-0.0371682974559688</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.888936934240957</v>
+        <v>-0.0658554730279383</v>
       </c>
       <c r="M30" t="n">
-        <v>0.822378372735048</v>
+        <v>-0.0171236314933466</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>-0.343514763918381</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.667139025323721</v>
+        <v>7.765818745046151e-06</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0189873417721519</v>
+        <v>0.258426966292135</v>
       </c>
       <c r="H31" t="n">
-        <v>0.392405063291139</v>
+        <v>0.140449438202247</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>0.007</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.0003120727956254</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0244719180121543</v>
+        <v>0.0001742540030888</v>
       </c>
       <c r="M31" t="n">
-        <v>0.050066717269852</v>
+        <v>0.0004327606635071</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>4.45818279464896</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6.3890644588005e-05</v>
+        <v>0.196461639017831</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H32" t="n">
-        <v>0.819767441860465</v>
+        <v>0.7159090909090911</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>10.925</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0549248120300749</v>
+        <v>2.50256937307297</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0828548368872479</v>
+        <v>-2.15053930156664</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0332375190076508</v>
+        <v>6.49631701506061</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.502744274874827</v>
+        <v>1.25128468653649</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.4876596175726e-08</v>
+        <v>0.201536851084622</v>
       </c>
       <c r="G33" t="n">
-        <v>0.28</v>
+        <v>0.883040935672515</v>
       </c>
       <c r="H33" t="n">
-        <v>0.142857142857143</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0004209334869937</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0002849647322916</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0005569897097445</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>6.01333552848205</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.236356210747952</v>
+        <v>0.256228196135661</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0057471264367816</v>
+        <v>0.31547619047619</v>
       </c>
       <c r="H34" t="n">
-        <v>0.701149425287356</v>
+        <v>0.101190476190476</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>197</v>
+        <v>0.003</v>
       </c>
       <c r="K34" t="n">
-        <v>2.23752815625567</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.49549736068188</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>6.1307120902156</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.13580109454603</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.533860003459751</v>
+        <v>0.179905296562276</v>
       </c>
       <c r="G35" t="n">
-        <v>0.898203592814371</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.143712574850299</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.35435</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0029040776919582</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0017650775299913</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0075017115472387</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.8195506397511499</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,35 +3655,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0273961626792581</v>
+        <v>0.602695251388385</v>
       </c>
       <c r="G36" t="n">
-        <v>0.307692307692308</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.108974358974359</v>
+        <v>0.591954022988506</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.003</v>
+        <v>7.69</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0019433359936153</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0103690174454223</v>
       </c>
       <c r="M36" t="n">
-        <v>9.91988049972841e-05</v>
+        <v>0.0141501210653753</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.0252709492017603</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.412117797099166</v>
+        <v>0.117008775033011</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.911949685534591</v>
+        <v>0.8764044943820229</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.354</v>
+        <v>0.3645</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0004997152880748999</v>
+        <v>0.0029685831992352</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0035120192307692</v>
+        <v>-0.0007306801564235</v>
       </c>
       <c r="M37" t="n">
-        <v>0.005281707209868</v>
+        <v>0.0068100736622465</v>
       </c>
       <c r="N37" t="n">
-        <v>0.14116251075564</v>
+        <v>0.814426117760008</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.953186965967234</v>
+        <v>0.77061391141581</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.611764705882353</v>
+        <v>0.584269662921348</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.68</v>
+        <v>0.52</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0133265506595565</v>
+        <v>-0.0022025559434144</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-0.0067891439593192</v>
       </c>
       <c r="M38" t="n">
-        <v>0.028217934288136</v>
+        <v>0.0021765026642419</v>
       </c>
       <c r="N38" t="n">
-        <v>0.173522795046309</v>
+        <v>-0.423568450656629</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,14 +3913,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.338884017967779</v>
+        <v>0.158768904053324</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.0393258426966292</v>
       </c>
       <c r="H39" t="n">
-        <v>0.822857142857143</v>
+        <v>0.224719101123595</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0.36</v>
+        <v>0.0155</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0008354289187855</v>
+        <v>0.0001098826714801</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0028357250583618</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0047540428662845</v>
+        <v>0.0003525617407238</v>
       </c>
       <c r="N39" t="n">
-        <v>0.232063588551551</v>
+        <v>0.70892046116222</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,14 +4004,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>15</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.929254460054052</v>
+        <v>0.814472858054861</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.577142857142857</v>
+        <v>0.764044943820225</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5</v>
+        <v>1.035</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.004723098912738</v>
+        <v>-0.0071970443349753</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.008790559562974899</v>
+        <v>-0.0223522358340963</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.0063783236477764</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.944619782547608</v>
+        <v>-0.69536660241308</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.234913518421475</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.222857142857143</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.015</v>
+        <v>0.296</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.0351563846871115</v>
       </c>
       <c r="L41" t="n">
-        <v>-7.90320358785762e-05</v>
+        <v>-0.0372067687693793</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0003202303440215</v>
+        <v>0.06935089976877309</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>11.877156988889</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4172,11 +4172,7 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4186,11 +4182,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4201,31 +4197,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.8013776054953879</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.782857142857143</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.04</v>
+        <v>98</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0070511583011583</v>
+        <v>2.56737345519811</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0219908716229223</v>
+        <v>-4.47934163377447</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0071299971803105</v>
+        <v>2.82977840976592</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.677995990495991</v>
+        <v>2.61976883183481</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4263,11 +4259,7 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4277,7 +4269,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4292,7 +4284,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.5</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4304,19 +4296,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.296</v>
+        <v>4.01</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0043376206245464</v>
+        <v>0.257246153785422</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0935262416496431</v>
+        <v>-0.398057411643373</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0468782036188287</v>
+        <v>0.520870743703871</v>
       </c>
       <c r="N43" t="n">
-        <v>1.4654123731576</v>
+        <v>6.41511605449931</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4317,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4364,11 +4356,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4379,7 +4371,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.40324797025367</v>
+        <v>0.9988212362021019</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4391,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98</v>
+        <v>0.2725</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.09657041778976</v>
+        <v>0.0309478293413174</v>
       </c>
       <c r="L44" t="n">
-        <v>-10.2228965231001</v>
+        <v>0.018248484030426</v>
       </c>
       <c r="M44" t="n">
-        <v>2.82977840976592</v>
+        <v>0.0365338933583888</v>
       </c>
       <c r="N44" t="n">
-        <v>-1.11894940590791</v>
+        <v>11.357001593144</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4412,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4451,11 +4443,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4466,7 +4458,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.889664319040077</v>
+        <v>0.984088436306755</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4478,19 +4470,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.68</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>0.380636251965409</v>
+        <v>3.27691511387164</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.398057411643373</v>
+        <v>1.56853970479744</v>
       </c>
       <c r="M45" t="n">
-        <v>0.8500853302038039</v>
+        <v>4.49607671459464</v>
       </c>
       <c r="N45" t="n">
-        <v>10.3433764121035</v>
+        <v>3.51977992897061</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4499,7 +4491,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4553,7 +4545,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.984088436306755</v>
+        <v>0.894751149972331</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4565,19 +4557,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.26</v>
+        <v>3.65</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0222238245752667</v>
+        <v>0.103903595416831</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0118374532486608</v>
+        <v>-0.114161039140578</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0349927806884994</v>
+        <v>0.201400315502511</v>
       </c>
       <c r="N46" t="n">
-        <v>8.547624836641029</v>
+        <v>2.84667384703647</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4578,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4625,11 +4617,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -4640,7 +4632,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.975451009195367</v>
+        <v>0.949740913396268</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -4652,19 +4644,19 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>90.5</v>
+        <v>0.2675</v>
       </c>
       <c r="K47" t="n">
-        <v>3.06197604790419</v>
+        <v>0.0120943708609272</v>
       </c>
       <c r="L47" t="n">
-        <v>0.635487941317863</v>
+        <v>-9.92678956074379e-05</v>
       </c>
       <c r="M47" t="n">
-        <v>4.49607671459464</v>
+        <v>0.0223948303932569</v>
       </c>
       <c r="N47" t="n">
-        <v>3.38339894796043</v>
+        <v>4.52126013492604</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4673,7 +4665,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4712,11 +4704,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4727,31 +4719,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5</v>
+        <v>0.740251954644881</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3.65</v>
+        <v>91</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0067389298892989</v>
+        <v>0.746169560776302</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.151138860460924</v>
+        <v>-0.662761145450327</v>
       </c>
       <c r="M48" t="n">
-        <v>0.109112203985082</v>
+        <v>2.10437134560772</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.184628216145177</v>
+        <v>0.819966550303629</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4760,7 +4752,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4799,7 +4791,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4814,31 +4806,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.649432865344804</v>
+        <v>0.371278410963289</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.928571428571429</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>91</v>
+        <v>3.799</v>
       </c>
       <c r="K49" t="n">
-        <v>0.473735408560311</v>
+        <v>-0.0188324287652646</v>
       </c>
       <c r="L49" t="n">
-        <v>-1.27578779781604</v>
+        <v>-0.150876138110102</v>
       </c>
       <c r="M49" t="n">
-        <v>1.94901602162399</v>
+        <v>0.0819231499466198</v>
       </c>
       <c r="N49" t="n">
-        <v>0.5205883610552871</v>
+        <v>-0.4957206834763</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>

--- a/trend_results/Rivers/MakotukuatRaetihi_07deeedf43.xlsx
+++ b/trend_results/Rivers/MakotukuatRaetihi_07deeedf43.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="70">
   <si>
     <t>site name</t>
   </si>
@@ -139,15 +139,15 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
@@ -160,31 +160,40 @@
     <t>Unlikely increasing</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Likely increasing</t>
   </si>
   <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -572,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,31 +675,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.396250230183014</v>
+        <v>0.435063868336805</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.8409090909090911</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>29.5</v>
+        <v>32.25</v>
       </c>
       <c r="K2">
-        <v>0.84439304567981</v>
+        <v>0.739181900625268</v>
       </c>
       <c r="L2">
-        <v>-3.8046875</v>
+        <v>-5.91513001438699</v>
       </c>
       <c r="M2">
-        <v>7.12236138628673</v>
+        <v>8.97081052740425</v>
       </c>
       <c r="N2">
-        <v>2.86234930738919</v>
+        <v>2.29203690116362</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -705,19 +714,19 @@
         <v>5634016</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -737,31 +746,31 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.147494642842708</v>
+        <v>0.268734689436391</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.521739130434783</v>
+        <v>0.594594594594595</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>-0.140181236673774</v>
+        <v>-0.0911850798011513</v>
       </c>
       <c r="L3">
-        <v>-0.450287286420275</v>
+        <v>-0.424143842766747</v>
       </c>
       <c r="M3">
-        <v>0.0546982278348637</v>
+        <v>0.20928661063051</v>
       </c>
       <c r="N3">
-        <v>-6.37187439426245</v>
+        <v>-4.55925399005757</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -776,19 +785,19 @@
         <v>5634016</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -808,31 +817,31 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.115868544195546</v>
+        <v>0.222219411252018</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.912280701754386</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.72</v>
+        <v>10.685</v>
       </c>
       <c r="K4">
-        <v>-0.107353041695147</v>
+        <v>-0.0295350404312662</v>
       </c>
       <c r="L4">
-        <v>-0.191709240612765</v>
+        <v>-0.17199962204947</v>
       </c>
       <c r="M4">
-        <v>0.0451878554354992</v>
+        <v>0.042053616447592</v>
       </c>
       <c r="N4">
-        <v>-1.00142762775324</v>
+        <v>-0.276415914190606</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
@@ -847,19 +856,19 @@
         <v>5634016</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -876,40 +885,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.346752361627455</v>
+        <v>0.0081541995068895</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.338983050847458</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0006865601503759</v>
       </c>
       <c r="L5">
-        <v>-0.0005028465877002</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0008027472527472</v>
+        <v>0.001393550794205</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>9.808002148227709</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q5">
         <v>1796445</v>
@@ -918,19 +927,19 @@
         <v>5634016</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -944,43 +953,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.220519977384083</v>
       </c>
       <c r="G6">
-        <v>0.0172413793103448</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="H6">
-        <v>0.879310344827586</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K6">
-        <v>-3.0103021978022</v>
+        <v>16.3284505208333</v>
       </c>
       <c r="L6">
-        <v>-30.9085666811499</v>
+        <v>-18.796152983675</v>
       </c>
       <c r="M6">
-        <v>23.4395463457841</v>
+        <v>61.1307486589217</v>
       </c>
       <c r="N6">
-        <v>-1.4001405571173</v>
+        <v>7.77545262896825</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q6">
         <v>1796445</v>
@@ -989,19 +998,19 @@
         <v>5634016</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1018,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>0.0336211830048579</v>
+        <v>0.161845216892728</v>
       </c>
       <c r="G7">
-        <v>0.839285714285714</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H7">
-        <v>0.214285714285714</v>
+        <v>0.185185185185185</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0.005</v>
@@ -1051,7 +1060,7 @@
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q7">
         <v>1796445</v>
@@ -1060,19 +1069,19 @@
         <v>5634016</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1089,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>0.9956673852162859</v>
+        <v>0.9999321236062479</v>
       </c>
       <c r="G8">
-        <v>0.254237288135593</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="H8">
         <v>0.101694915254237</v>
@@ -1104,19 +1113,19 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K8">
-        <v>-0.000332650273224</v>
+        <v>-0.0004537267080745</v>
       </c>
       <c r="L8">
-        <v>-0.0005997536945812</v>
+        <v>-0.000668956043956</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-11.0883424408015</v>
+        <v>-22.6863354037267</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
@@ -1131,19 +1140,19 @@
         <v>5634016</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1163,37 +1172,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>3.60445964434052E-05</v>
+        <v>0.139508156605682</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.966101694915254</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.344</v>
+        <v>0.355</v>
       </c>
       <c r="K9">
-        <v>0.0571421934413309</v>
+        <v>0.0126265453296703</v>
       </c>
       <c r="L9">
-        <v>0.0339214317736503</v>
+        <v>-0.0050171703296703</v>
       </c>
       <c r="M9">
-        <v>0.0756471232464405</v>
+        <v>0.0369995756556157</v>
       </c>
       <c r="N9">
-        <v>16.6111027445729</v>
+        <v>3.5567733323015</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1796445</v>
@@ -1202,19 +1211,19 @@
         <v>5634016</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1234,37 +1243,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.108471939382853</v>
+        <v>0.014719996258908</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.793103448275862</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.695</v>
+        <v>7.68</v>
       </c>
       <c r="K10">
-        <v>-0.0378105590062117</v>
+        <v>-0.0600415465681857</v>
       </c>
       <c r="L10">
-        <v>-0.103933313817302</v>
+        <v>-0.120163757767212</v>
       </c>
       <c r="M10">
-        <v>0.01568233272631</v>
+        <v>-0.0154231297746585</v>
       </c>
       <c r="N10">
-        <v>-0.491365289229522</v>
+        <v>-0.781790970939917</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q10">
         <v>1796445</v>
@@ -1273,16 +1282,16 @@
         <v>5634016</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1302,37 +1311,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>1.03151239012525E-05</v>
+        <v>0.155529018313119</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.9830508474576271</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.355</v>
+        <v>0.364</v>
       </c>
       <c r="K11">
-        <v>0.0579483173076923</v>
+        <v>0.0172256181318681</v>
       </c>
       <c r="L11">
-        <v>0.0338544660060418</v>
+        <v>-0.0029448060833859</v>
       </c>
       <c r="M11">
-        <v>0.0721287389184188</v>
+        <v>0.0399747748231675</v>
       </c>
       <c r="N11">
-        <v>16.3234696641387</v>
+        <v>4.73231267359015</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q11">
         <v>1796445</v>
@@ -1341,19 +1350,19 @@
         <v>5634016</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1373,13 +1382,13 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>5.91909907084788E-08</v>
+        <v>0.017694408912003</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.76271186440678</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1388,22 +1397,22 @@
         <v>0.51</v>
       </c>
       <c r="K12">
-        <v>0.0587170772775612</v>
+        <v>0.0303981496444732</v>
       </c>
       <c r="L12">
-        <v>0.0447244897959184</v>
+        <v>0.0100343406593406</v>
       </c>
       <c r="M12">
-        <v>0.0766047672202623</v>
+        <v>0.0500803623885899</v>
       </c>
       <c r="N12">
-        <v>11.5131524073649</v>
+        <v>5.96042149891631</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q12">
         <v>1796445</v>
@@ -1412,19 +1421,19 @@
         <v>5634016</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1444,7 +1453,7 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.008349936217039</v>
+        <v>0.0854431894431322</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1459,22 +1468,22 @@
         <v>0.017</v>
       </c>
       <c r="K13">
-        <v>0.001665273556231</v>
+        <v>0.000862455726092</v>
       </c>
       <c r="L13">
-        <v>0.0004303586363237</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.0030219140702507</v>
+        <v>0.0018355729588905</v>
       </c>
       <c r="N13">
-        <v>9.795726801358841</v>
+        <v>5.07326897701229</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q13">
         <v>1796445</v>
@@ -1483,19 +1492,19 @@
         <v>5634016</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1512,34 +1521,34 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>0.468715329028129</v>
+        <v>0.570091726774183</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.796610169491525</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>-0.0066895604395604</v>
       </c>
       <c r="L14">
-        <v>-0.0490897524972727</v>
+        <v>-0.06907564235352449</v>
       </c>
       <c r="M14">
-        <v>0.07233746788117081</v>
+        <v>0.0541873853128318</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>-0.727126134734827</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
@@ -1554,19 +1563,19 @@
         <v>5634016</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1586,37 +1595,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.188838724346568</v>
+        <v>0.0428472987725432</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.690721649484536</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.724522732370092</v>
+        <v>1.63058035714286</v>
       </c>
       <c r="L15">
-        <v>-0.666881275233384</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>2.2313204887218</v>
+        <v>3.05508905054579</v>
       </c>
       <c r="N15">
-        <v>2.95723564232691</v>
+        <v>6.79408482142857</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q15">
         <v>1796445</v>
@@ -1625,19 +1634,19 @@
         <v>5634016</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1657,16 +1666,16 @@
         <v>43</v>
       </c>
       <c r="F16">
-        <v>0.49531050147427</v>
+        <v>0.51305083263356</v>
       </c>
       <c r="G16">
-        <v>0.0198019801980198</v>
+        <v>0.0106382978723404</v>
       </c>
       <c r="H16">
-        <v>0.435643564356436</v>
+        <v>0.457446808510638</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1675,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0613636022360519</v>
+        <v>-0.0867202732635341</v>
       </c>
       <c r="M16">
-        <v>0.0973812179459953</v>
+        <v>0.0972271517302573</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1696,19 +1705,19 @@
         <v>5634016</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1728,37 +1737,37 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.757661542782937</v>
+        <v>0.686479299847599</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.836206896551724</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.69</v>
+        <v>10.71</v>
       </c>
       <c r="K17">
-        <v>0.0200045641259697</v>
+        <v>0.0119950738916257</v>
       </c>
       <c r="L17">
-        <v>-0.0287929092310857</v>
+        <v>-0.0300841739807934</v>
       </c>
       <c r="M17">
-        <v>0.0499316473000682</v>
+        <v>0.0416872990745262</v>
       </c>
       <c r="N17">
-        <v>0.187133434293449</v>
+        <v>0.111998822517514</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q17">
         <v>1796445</v>
@@ -1767,19 +1776,19 @@
         <v>5634016</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1799,37 +1808,37 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.988012051281587</v>
+        <v>0.920203980170308</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.226890756302521</v>
+        <v>0.218487394957983</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="K18">
-        <v>-0.0003525579150579</v>
+        <v>-0.0001595674967234</v>
       </c>
       <c r="L18">
-        <v>-0.0006067275747508</v>
+        <v>-0.000395898800016</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>-3.91731016731017</v>
+        <v>-1.99459370904325</v>
       </c>
       <c r="O18" t="s">
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q18">
         <v>1796445</v>
@@ -1838,19 +1847,19 @@
         <v>5634016</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1870,37 +1879,37 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.0348943534634941</v>
+        <v>0.0363473969278804</v>
       </c>
       <c r="G19">
-        <v>0.008547008547008499</v>
+        <v>0.008695652173913</v>
       </c>
       <c r="H19">
-        <v>0.7435897435897439</v>
+        <v>0.747826086956522</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K19">
-        <v>7.98583678164354</v>
+        <v>6.59399878532463</v>
       </c>
       <c r="L19">
-        <v>0.999816851842286</v>
+        <v>0.938879323409449</v>
       </c>
       <c r="M19">
-        <v>16.5523954023155</v>
+        <v>16.8958595130415</v>
       </c>
       <c r="N19">
-        <v>3.99291839082177</v>
+        <v>3.13999942158316</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q19">
         <v>1796445</v>
@@ -1909,19 +1918,19 @@
         <v>5634016</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1938,16 +1947,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>0.0187669586463041</v>
+        <v>0.0820740674397266</v>
       </c>
       <c r="G20">
-        <v>0.8947368421052631</v>
+        <v>0.883928571428571</v>
       </c>
       <c r="H20">
-        <v>0.157894736842105</v>
+        <v>0.169642857142857</v>
       </c>
       <c r="I20">
         <v>6</v>
@@ -1971,7 +1980,7 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q20">
         <v>1796445</v>
@@ -1980,19 +1989,19 @@
         <v>5634016</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2009,16 +2018,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>0.999889912550545</v>
+        <v>0.999999978457438</v>
       </c>
       <c r="G21">
-        <v>0.168067226890756</v>
+        <v>0.243697478991597</v>
       </c>
       <c r="H21">
-        <v>0.126050420168067</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2027,16 +2036,16 @@
         <v>0.003</v>
       </c>
       <c r="K21">
-        <v>-0.0002038225446428</v>
+        <v>-0.0003034898213543</v>
       </c>
       <c r="L21">
-        <v>-0.0003078381795195</v>
+        <v>-0.0003952922077922</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-0.0001999178981937</v>
       </c>
       <c r="N21">
-        <v>-6.79408482142857</v>
+        <v>-10.1163273784794</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
@@ -2051,19 +2060,19 @@
         <v>5634016</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2083,37 +2092,37 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.0093922209163464</v>
+        <v>0.201724366919275</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.957983193277311</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="K22">
-        <v>0.0103027752502275</v>
+        <v>0.0036558234758871</v>
       </c>
       <c r="L22">
-        <v>0.003655770834398</v>
+        <v>-0.003383197473944</v>
       </c>
       <c r="M22">
-        <v>0.0143491150916819</v>
+        <v>0.011733961760676</v>
       </c>
       <c r="N22">
-        <v>2.91038848876482</v>
+        <v>1.02980942982737</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q22">
         <v>1796445</v>
@@ -2122,19 +2131,19 @@
         <v>5634016</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2151,16 +2160,16 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F23">
-        <v>0.712959743498235</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.658119658119658</v>
+        <v>0.669565217391304</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2169,22 +2178,22 @@
         <v>7.69</v>
       </c>
       <c r="K23">
-        <v>0.0044407294832826</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-0.0187491863794096</v>
+        <v>-0.023436012868476</v>
       </c>
       <c r="M23">
-        <v>0.0269732724032449</v>
+        <v>0.0150853452697188</v>
       </c>
       <c r="N23">
-        <v>0.0577468073248723</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q23">
         <v>1796445</v>
@@ -2193,16 +2202,16 @@
         <v>5634016</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2222,37 +2231,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.0035517996912216</v>
+        <v>0.136088562313993</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.857142857142857</v>
+        <v>0.831932773109244</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.36</v>
+        <v>0.364</v>
       </c>
       <c r="K24">
-        <v>0.0100343406593407</v>
+        <v>0.0040137362637362</v>
       </c>
       <c r="L24">
-        <v>0.0040137362637362</v>
+        <v>-0.0017443848612963</v>
       </c>
       <c r="M24">
-        <v>0.017085718086267</v>
+        <v>0.011416911573769</v>
       </c>
       <c r="N24">
-        <v>2.78731684981685</v>
+        <v>1.10267479772974</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q24">
         <v>1796445</v>
@@ -2261,19 +2270,19 @@
         <v>5634016</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2290,40 +2299,40 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F25">
-        <v>0.186862889442466</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.647058823529412</v>
+        <v>0.5630252100840339</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="K25">
-        <v>0.004214423076923</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>-0.004012746585921</v>
+        <v>-0.0100017335382761</v>
       </c>
       <c r="M25">
-        <v>0.0132758490825502</v>
+        <v>0.009829998348469701</v>
       </c>
       <c r="N25">
-        <v>0.810465976331361</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q25">
         <v>1796445</v>
@@ -2332,19 +2341,19 @@
         <v>5634016</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2364,13 +2373,13 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.0437927796066939</v>
+        <v>0.051093560061117</v>
       </c>
       <c r="G26">
         <v>0.008403361344537799</v>
       </c>
       <c r="H26">
-        <v>0.277310924369748</v>
+        <v>0.26890756302521</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2379,22 +2388,22 @@
         <v>0.016</v>
       </c>
       <c r="K26">
-        <v>0.0003557629870129</v>
+        <v>0.0003330547112462</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.0007826785714285</v>
+        <v>0.0007173432987027</v>
       </c>
       <c r="N26">
-        <v>2.22351866883117</v>
+        <v>2.08159194528875</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q26">
         <v>1796445</v>
@@ -2403,19 +2412,19 @@
         <v>5634016</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2435,37 +2444,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.208066793695338</v>
+        <v>0.6628897992808021</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.764705882352941</v>
+        <v>0.739495798319328</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="K27">
-        <v>0.0100343406593407</v>
+        <v>-0.0058717573986116</v>
       </c>
       <c r="L27">
-        <v>-0.0110826940440687</v>
+        <v>-0.0276501016864703</v>
       </c>
       <c r="M27">
-        <v>0.0344940622668582</v>
+        <v>0.0163058035714286</v>
       </c>
       <c r="N27">
-        <v>1.03446810921038</v>
+        <v>-0.599158918225676</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27">
         <v>1796445</v>
@@ -2474,19 +2483,19 @@
         <v>5634016</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2506,13 +2515,13 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.424801547479569</v>
+        <v>0.301064881207991</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.630434782608696</v>
+        <v>0.626865671641791</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2521,22 +2530,22 @@
         <v>24.75</v>
       </c>
       <c r="K28">
-        <v>0.0598378112712975</v>
+        <v>0.272472957851548</v>
       </c>
       <c r="L28">
-        <v>-0.696828724840039</v>
+        <v>-0.609307092152916</v>
       </c>
       <c r="M28">
-        <v>0.9010208661682561</v>
+        <v>1.13199430026961</v>
       </c>
       <c r="N28">
-        <v>0.241768934429485</v>
+        <v>1.10090083980423</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q28">
         <v>1796445</v>
@@ -2545,19 +2554,19 @@
         <v>5634016</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2574,16 +2583,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29">
-        <v>0.574030156594365</v>
+        <v>0.5966920761411399</v>
       </c>
       <c r="G29">
-        <v>0.0197368421052632</v>
+        <v>0.0206896551724138</v>
       </c>
       <c r="H29">
-        <v>0.388157894736842</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -2595,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>-0.0315826908358741</v>
+        <v>-0.03064867679321</v>
       </c>
       <c r="M29">
-        <v>0.0486420902401499</v>
+        <v>0.0562650300463952</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2616,19 +2625,19 @@
         <v>5634016</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2648,37 +2657,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.0037573458595869</v>
+        <v>0.0259793354886</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.798850574712644</v>
+        <v>0.770114942528736</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.82</v>
+        <v>10.775</v>
       </c>
       <c r="K30">
-        <v>-0.0371682974559688</v>
+        <v>-0.0274624060150375</v>
       </c>
       <c r="L30">
-        <v>-0.0658554730279383</v>
+        <v>-0.043794964028777</v>
       </c>
       <c r="M30">
-        <v>-0.0171236314933466</v>
+        <v>-0.0043534080210246</v>
       </c>
       <c r="N30">
-        <v>-0.343514763918381</v>
+        <v>-0.254871517540951</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q30">
         <v>1796445</v>
@@ -2687,19 +2696,19 @@
         <v>5634016</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2716,16 +2725,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>7.765818745046151E-06</v>
+        <v>0.0006769296769439</v>
       </c>
       <c r="G31">
-        <v>0.258426966292135</v>
+        <v>0.213483146067416</v>
       </c>
       <c r="H31">
-        <v>0.140449438202247</v>
+        <v>0.151685393258427</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2734,22 +2743,22 @@
         <v>0.007</v>
       </c>
       <c r="K31">
-        <v>0.0003120727956254</v>
+        <v>0.0002526807333102</v>
       </c>
       <c r="L31">
-        <v>0.0001742540030888</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0004327606635071</v>
+        <v>0.0003640921680037</v>
       </c>
       <c r="N31">
-        <v>4.45818279464896</v>
+        <v>3.60972476157533</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q31">
         <v>1796445</v>
@@ -2758,19 +2767,19 @@
         <v>5634016</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2790,31 +2799,31 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.196461639017831</v>
+        <v>0.128045581775648</v>
       </c>
       <c r="G32">
-        <v>0.0056818181818181</v>
+        <v>0.0057471264367816</v>
       </c>
       <c r="H32">
-        <v>0.7159090909090911</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K32">
-        <v>2.50256937307297</v>
+        <v>2.99749240121581</v>
       </c>
       <c r="L32">
-        <v>-2.15053930156664</v>
+        <v>-1.00343406593407</v>
       </c>
       <c r="M32">
-        <v>6.49631701506061</v>
+        <v>7.09610148596732</v>
       </c>
       <c r="N32">
-        <v>1.25128468653649</v>
+        <v>1.49128975184866</v>
       </c>
       <c r="O32" t="s">
         <v>44</v>
@@ -2829,19 +2838,19 @@
         <v>5634016</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2858,16 +2867,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33">
-        <v>0.201536851084622</v>
+        <v>0.417642768002079</v>
       </c>
       <c r="G33">
-        <v>0.883040935672515</v>
+        <v>0.875739644970414</v>
       </c>
       <c r="H33">
-        <v>0.157894736842105</v>
+        <v>0.165680473372781</v>
       </c>
       <c r="I33">
         <v>7</v>
@@ -2891,7 +2900,7 @@
         <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q33">
         <v>1796445</v>
@@ -2900,19 +2909,19 @@
         <v>5634016</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2929,16 +2938,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34">
-        <v>0.256228196135661</v>
+        <v>0.822437954785155</v>
       </c>
       <c r="G34">
-        <v>0.31547619047619</v>
+        <v>0.337078651685393</v>
       </c>
       <c r="H34">
-        <v>0.101190476190476</v>
+        <v>0.0955056179775281</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2962,7 +2971,7 @@
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q34">
         <v>1796445</v>
@@ -2971,19 +2980,19 @@
         <v>5634016</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3003,13 +3012,13 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.179905296562276</v>
+        <v>0.43658738332541</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.916666666666667</v>
+        <v>0.904494382022472</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3018,22 +3027,22 @@
         <v>0.35435</v>
       </c>
       <c r="K35">
-        <v>0.0029040776919582</v>
+        <v>0.0004993164730006</v>
       </c>
       <c r="L35">
-        <v>-0.0017650775299913</v>
+        <v>-0.0029989642401759</v>
       </c>
       <c r="M35">
-        <v>0.0075017115472387</v>
+        <v>0.0045829924038958</v>
       </c>
       <c r="N35">
-        <v>0.8195506397511499</v>
+        <v>0.14091053280674</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q35">
         <v>1796445</v>
@@ -3042,19 +3051,19 @@
         <v>5634016</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3074,37 +3083,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.602695251388385</v>
+        <v>0.08117496062797901</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.591954022988506</v>
+        <v>0.569767441860465</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.69</v>
+        <v>7.695</v>
       </c>
       <c r="K36">
-        <v>0.0019433359936153</v>
+        <v>-0.009420413546542199</v>
       </c>
       <c r="L36">
-        <v>-0.0103690174454223</v>
+        <v>-0.0218167132135913</v>
       </c>
       <c r="M36">
-        <v>0.0141501210653753</v>
+        <v>0.0015859187556872</v>
       </c>
       <c r="N36">
-        <v>0.0252709492017603</v>
+        <v>-0.122422528220172</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q36">
         <v>1796445</v>
@@ -3113,16 +3122,16 @@
         <v>5634016</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3142,37 +3151,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.117008775033011</v>
+        <v>0.358352691578253</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.8764044943820229</v>
+        <v>0.859550561797753</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.3645</v>
+        <v>0.364</v>
       </c>
       <c r="K37">
-        <v>0.0029685831992352</v>
+        <v>0.0006894018096137001</v>
       </c>
       <c r="L37">
-        <v>-0.0007306801564235</v>
+        <v>-0.0024924317933111</v>
       </c>
       <c r="M37">
-        <v>0.0068100736622465</v>
+        <v>0.0049390964464779</v>
       </c>
       <c r="N37">
-        <v>0.814426117760008</v>
+        <v>0.189396101542248</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q37">
         <v>1796445</v>
@@ -3181,19 +3190,19 @@
         <v>5634016</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3213,37 +3222,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.77061391141581</v>
+        <v>0.891592979876516</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.584269662921348</v>
+        <v>0.567415730337079</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="K38">
-        <v>-0.0022025559434144</v>
+        <v>-0.0039978109928815</v>
       </c>
       <c r="L38">
-        <v>-0.0067891439593192</v>
+        <v>-0.008940265444123499</v>
       </c>
       <c r="M38">
-        <v>0.0021765026642419</v>
+        <v>0.0009876137937459999</v>
       </c>
       <c r="N38">
-        <v>-0.423568450656629</v>
+        <v>-0.7838845084081409</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q38">
         <v>1796445</v>
@@ -3252,19 +3261,19 @@
         <v>5634016</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3284,37 +3293,37 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.158768904053324</v>
+        <v>0.0286554519431495</v>
       </c>
       <c r="G39">
         <v>0.0393258426966292</v>
       </c>
       <c r="H39">
-        <v>0.224719101123595</v>
+        <v>0.207865168539326</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39">
-        <v>0.0155</v>
+        <v>0.015</v>
       </c>
       <c r="K39">
-        <v>0.0001098826714801</v>
+        <v>0.0002229853479853</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.0003525617407238</v>
+        <v>0.0004366105276301</v>
       </c>
       <c r="N39">
-        <v>0.70892046116222</v>
+        <v>1.48656898656898</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q39">
         <v>1796445</v>
@@ -3323,19 +3332,19 @@
         <v>5634016</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3355,37 +3364,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.814472858054861</v>
+        <v>0.667414259296285</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.764044943820225</v>
+        <v>0.747191011235955</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.035</v>
+        <v>0.985</v>
       </c>
       <c r="K40">
-        <v>-0.0071970443349753</v>
+        <v>-0.0033234758871701</v>
       </c>
       <c r="L40">
-        <v>-0.0223522358340963</v>
+        <v>-0.0165110822830138</v>
       </c>
       <c r="M40">
-        <v>0.0063783236477764</v>
+        <v>0.009811852988869701</v>
       </c>
       <c r="N40">
-        <v>-0.69536660241308</v>
+        <v>-0.337408719509661</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q40">
         <v>1796445</v>
@@ -3394,19 +3403,19 @@
         <v>5634016</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3414,49 +3423,49 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F41">
-        <v>0.889664319040077</v>
+        <v>0.327474884851583</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.0171428571428571</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41">
-        <v>0.296</v>
+        <v>2</v>
       </c>
       <c r="K41">
-        <v>0.0351563846871115</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>-0.0372067687693793</v>
+        <v>-0.0399154342496989</v>
       </c>
       <c r="M41">
-        <v>0.06935089976877309</v>
+        <v>0.0233979127975299</v>
       </c>
       <c r="N41">
-        <v>11.877156988889</v>
+        <v>0</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Q41">
         <v>1796445</v>
@@ -3465,16 +3474,19 @@
         <v>5634016</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V41" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="W41" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3482,49 +3494,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.768783636774762</v>
+        <v>7.91478627170106E-05</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0.770408163265306</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>98</v>
+        <v>10.875</v>
       </c>
       <c r="K42">
-        <v>2.56737345519811</v>
+        <v>-0.0413436768149882</v>
       </c>
       <c r="L42">
-        <v>-4.47934163377447</v>
+        <v>-0.0646020408163261</v>
       </c>
       <c r="M42">
-        <v>2.82977840976592</v>
+        <v>-0.0274567122236211</v>
       </c>
       <c r="N42">
-        <v>2.61976883183481</v>
+        <v>-0.380171740827477</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q42">
         <v>1796445</v>
@@ -3533,16 +3545,19 @@
         <v>5634016</v>
       </c>
       <c r="S42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V42" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="W42" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3550,49 +3565,49 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F43">
-        <v>0.889664319040077</v>
+        <v>5.01276226905043E-05</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.260663507109005</v>
       </c>
       <c r="H43">
+        <v>0.137440758293839</v>
+      </c>
+      <c r="I43">
         <v>1</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43">
-        <v>4.01</v>
+        <v>0.007</v>
       </c>
       <c r="K43">
-        <v>0.257246153785422</v>
+        <v>0.000223094307354</v>
       </c>
       <c r="L43">
-        <v>-0.398057411643373</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0.520870743703871</v>
+        <v>0.0003098112380625</v>
       </c>
       <c r="N43">
-        <v>6.41511605449931</v>
+        <v>3.18706153362884</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q43">
         <v>1796445</v>
@@ -3601,16 +3616,19 @@
         <v>5634016</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V43" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="W43" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3618,49 +3636,49 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.9988212362021019</v>
+        <v>0.0311107477637079</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.0097087378640776</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0.70873786407767</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0.2725</v>
+        <v>197</v>
       </c>
       <c r="K44">
-        <v>0.0309478293413174</v>
+        <v>3.81414719045251</v>
       </c>
       <c r="L44">
-        <v>0.018248484030426</v>
+        <v>0.427266426807243</v>
       </c>
       <c r="M44">
-        <v>0.0365338933583888</v>
+        <v>6.97404143376297</v>
       </c>
       <c r="N44">
-        <v>11.357001593144</v>
+        <v>1.9361153251028</v>
       </c>
       <c r="O44" t="s">
         <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q44">
         <v>1796445</v>
@@ -3669,16 +3687,19 @@
         <v>5634016</v>
       </c>
       <c r="S44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V44" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="W44" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3686,49 +3707,49 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45">
-        <v>0.984088436306755</v>
+        <v>0.377977609585324</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.880597014925373</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0.159203980099502</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J45">
-        <v>93.09999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="K45">
-        <v>3.27691511387164</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>1.56853970479744</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>4.49607671459464</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>3.51977992897061</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q45">
         <v>1796445</v>
@@ -3737,16 +3758,19 @@
         <v>5634016</v>
       </c>
       <c r="S45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V45" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="W45" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3754,49 +3778,49 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.894751149972331</v>
+        <v>0.28840988952101</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>3.65</v>
+        <v>0.354</v>
       </c>
       <c r="K46">
-        <v>0.103903595416831</v>
+        <v>0.0012807035519125</v>
       </c>
       <c r="L46">
-        <v>-0.114161039140578</v>
+        <v>-0.0023531805764694</v>
       </c>
       <c r="M46">
-        <v>0.201400315502511</v>
+        <v>0.0044965570491263</v>
       </c>
       <c r="N46">
-        <v>2.84667384703647</v>
+        <v>0.361780664382082</v>
       </c>
       <c r="O46" t="s">
         <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Q46">
         <v>1796445</v>
@@ -3805,16 +3829,19 @@
         <v>5634016</v>
       </c>
       <c r="S46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U46" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V46" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="W46" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3822,10 +3849,10 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -3834,37 +3861,37 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.949740913396268</v>
+        <v>0.824398620263244</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0.5665024630541871</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.2675</v>
+        <v>7.66</v>
       </c>
       <c r="K47">
-        <v>0.0120943708609272</v>
+        <v>0.0054741881765195</v>
       </c>
       <c r="L47">
-        <v>-9.92678956074379E-05</v>
+        <v>-0.004427569599385</v>
       </c>
       <c r="M47">
-        <v>0.0223948303932569</v>
+        <v>0.0155383263932541</v>
       </c>
       <c r="N47">
-        <v>4.52126013492604</v>
+        <v>0.07146459760469399</v>
       </c>
       <c r="O47" t="s">
         <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q47">
         <v>1796445</v>
@@ -3873,16 +3900,16 @@
         <v>5634016</v>
       </c>
       <c r="S47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U47" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3890,49 +3917,49 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.740251954644881</v>
+        <v>0.325774994549353</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0.933333333333333</v>
+        <v>0.853080568720379</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>91</v>
+        <v>0.364</v>
       </c>
       <c r="K48">
-        <v>0.746169560776302</v>
+        <v>0.0008113892686261</v>
       </c>
       <c r="L48">
-        <v>-0.662761145450327</v>
+        <v>-0.0020329421066084</v>
       </c>
       <c r="M48">
-        <v>2.10437134560772</v>
+        <v>0.0041449402756641</v>
       </c>
       <c r="N48">
-        <v>0.819966550303629</v>
+        <v>0.222909139732448</v>
       </c>
       <c r="O48" t="s">
         <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Q48">
         <v>1796445</v>
@@ -3941,60 +3968,63 @@
         <v>5634016</v>
       </c>
       <c r="S48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>63</v>
+      </c>
+      <c r="W48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.371278410963289</v>
+        <v>0.61123006970018</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0.507109004739337</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>3.799</v>
+        <v>0.5</v>
       </c>
       <c r="K49">
-        <v>-0.0188324287652646</v>
+        <v>-0.0007147749510763</v>
       </c>
       <c r="L49">
-        <v>-0.150876138110102</v>
+        <v>-0.0045706622876153</v>
       </c>
       <c r="M49">
-        <v>0.0819231499466198</v>
+        <v>0.0027638361231559</v>
       </c>
       <c r="N49">
-        <v>-0.4957206834763</v>
+        <v>-0.142954990215264</v>
       </c>
       <c r="O49" t="s">
         <v>44</v>
@@ -4009,16 +4039,773 @@
         <v>5634016</v>
       </c>
       <c r="S49" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U49" t="s">
+        <v>62</v>
+      </c>
+      <c r="V49" t="s">
+        <v>63</v>
+      </c>
+      <c r="W49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50">
+        <v>0.251339914501609</v>
+      </c>
+      <c r="G50">
+        <v>0.033175355450237</v>
+      </c>
+      <c r="H50">
+        <v>0.194312796208531</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0.016</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>-6.09768607919433E-05</v>
+      </c>
+      <c r="M50">
+        <v>0.0002190185888466</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>44</v>
+      </c>
+      <c r="P50" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q50">
+        <v>1796445</v>
+      </c>
+      <c r="R50">
+        <v>5634016</v>
+      </c>
+      <c r="S50" t="s">
+        <v>60</v>
+      </c>
+      <c r="T50" t="s">
+        <v>61</v>
+      </c>
+      <c r="U50" t="s">
+        <v>62</v>
+      </c>
+      <c r="V50" t="s">
+        <v>63</v>
+      </c>
+      <c r="W50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <v>0.786115936208419</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0.739336492890995</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1.03</v>
+      </c>
+      <c r="K51">
+        <v>-0.0047584231805929</v>
+      </c>
+      <c r="L51">
+        <v>-0.0152188575225668</v>
+      </c>
+      <c r="M51">
+        <v>0.0055188455473682</v>
+      </c>
+      <c r="N51">
+        <v>-0.46198283306728</v>
+      </c>
+      <c r="O51" t="s">
+        <v>44</v>
+      </c>
+      <c r="P51" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51">
+        <v>1796445</v>
+      </c>
+      <c r="R51">
+        <v>5634016</v>
+      </c>
+      <c r="S51" t="s">
+        <v>60</v>
+      </c>
+      <c r="T51" t="s">
+        <v>61</v>
+      </c>
+      <c r="U51" t="s">
+        <v>62</v>
+      </c>
+      <c r="V51" t="s">
+        <v>63</v>
+      </c>
+      <c r="W51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.38</v>
+      </c>
+      <c r="K52">
+        <v>0.0396916411319394</v>
+      </c>
+      <c r="L52">
+        <v>-0.0372067687693793</v>
+      </c>
+      <c r="M52">
+        <v>0.0858572617373643</v>
+      </c>
+      <c r="N52">
+        <v>10.4451687189314</v>
+      </c>
+      <c r="O52" t="s">
+        <v>44</v>
+      </c>
+      <c r="P52" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q52">
+        <v>1796445</v>
+      </c>
+      <c r="R52">
+        <v>5634016</v>
+      </c>
+      <c r="S52" t="s">
+        <v>60</v>
+      </c>
+      <c r="T52" t="s">
+        <v>61</v>
+      </c>
+      <c r="U52" t="s">
+        <v>62</v>
+      </c>
+      <c r="V52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>100.83</v>
+      </c>
+      <c r="K53">
+        <v>2.49426843045902</v>
+      </c>
+      <c r="L53">
+        <v>-4.47934163377447</v>
+      </c>
+      <c r="M53">
+        <v>5.0711140282559</v>
+      </c>
+      <c r="N53">
+        <v>2.47373641818806</v>
+      </c>
+      <c r="O53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q53">
+        <v>1796445</v>
+      </c>
+      <c r="R53">
+        <v>5634016</v>
+      </c>
+      <c r="S53" t="s">
+        <v>60</v>
+      </c>
+      <c r="T53" t="s">
+        <v>61</v>
+      </c>
+      <c r="U53" t="s">
+        <v>62</v>
+      </c>
+      <c r="V53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <v>0.95679463351315</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>4.26</v>
+      </c>
+      <c r="K54">
+        <v>0.406860501833675</v>
+      </c>
+      <c r="L54">
+        <v>0.0071134191312541</v>
+      </c>
+      <c r="M54">
+        <v>0.520870743703871</v>
+      </c>
+      <c r="N54">
+        <v>9.550716005485331</v>
+      </c>
+      <c r="O54" t="s">
+        <v>44</v>
+      </c>
+      <c r="P54" t="s">
         <v>59</v>
       </c>
-      <c r="V49" t="s">
-        <v>60</v>
+      <c r="Q54">
+        <v>1796445</v>
+      </c>
+      <c r="R54">
+        <v>5634016</v>
+      </c>
+      <c r="S54" t="s">
+        <v>60</v>
+      </c>
+      <c r="T54" t="s">
+        <v>61</v>
+      </c>
+      <c r="U54" t="s">
+        <v>62</v>
+      </c>
+      <c r="V54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55">
+        <v>0.9988212362021019</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.293</v>
+      </c>
+      <c r="K55">
+        <v>0.0346026315789474</v>
+      </c>
+      <c r="L55">
+        <v>0.0218800711889804</v>
+      </c>
+      <c r="M55">
+        <v>0.0404162587399281</v>
+      </c>
+      <c r="N55">
+        <v>11.8097718699479</v>
+      </c>
+      <c r="O55" t="s">
+        <v>44</v>
+      </c>
+      <c r="P55" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q55">
+        <v>1796445</v>
+      </c>
+      <c r="R55">
+        <v>5634016</v>
+      </c>
+      <c r="S55" t="s">
+        <v>60</v>
+      </c>
+      <c r="T55" t="s">
+        <v>61</v>
+      </c>
+      <c r="U55" t="s">
+        <v>62</v>
+      </c>
+      <c r="V55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>0.9899776656886859</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="K56">
+        <v>3.66478557013118</v>
+      </c>
+      <c r="L56">
+        <v>1.66213761582298</v>
+      </c>
+      <c r="M56">
+        <v>4.59525863443036</v>
+      </c>
+      <c r="N56">
+        <v>3.79377388212338</v>
+      </c>
+      <c r="O56" t="s">
+        <v>44</v>
+      </c>
+      <c r="P56" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q56">
+        <v>1796445</v>
+      </c>
+      <c r="R56">
+        <v>5634016</v>
+      </c>
+      <c r="S56" t="s">
+        <v>60</v>
+      </c>
+      <c r="T56" t="s">
+        <v>61</v>
+      </c>
+      <c r="U56" t="s">
+        <v>62</v>
+      </c>
+      <c r="V56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>0.9899776656886859</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>3.65</v>
+      </c>
+      <c r="K57">
+        <v>0.166153811114485</v>
+      </c>
+      <c r="L57">
+        <v>0.100014213449373</v>
+      </c>
+      <c r="M57">
+        <v>0.267374684937364</v>
+      </c>
+      <c r="N57">
+        <v>4.55215920861604</v>
+      </c>
+      <c r="O57" t="s">
+        <v>44</v>
+      </c>
+      <c r="P57" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q57">
+        <v>1796445</v>
+      </c>
+      <c r="R57">
+        <v>5634016</v>
+      </c>
+      <c r="S57" t="s">
+        <v>60</v>
+      </c>
+      <c r="T57" t="s">
+        <v>61</v>
+      </c>
+      <c r="U57" t="s">
+        <v>62</v>
+      </c>
+      <c r="V57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>0.985275947892863</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.27</v>
+      </c>
+      <c r="K58">
+        <v>0.0149284741144414</v>
+      </c>
+      <c r="L58">
+        <v>0.0042951971352953</v>
+      </c>
+      <c r="M58">
+        <v>0.0286240983289879</v>
+      </c>
+      <c r="N58">
+        <v>5.52906448683016</v>
+      </c>
+      <c r="O58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P58" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q58">
+        <v>1796445</v>
+      </c>
+      <c r="R58">
+        <v>5634016</v>
+      </c>
+      <c r="S58" t="s">
+        <v>60</v>
+      </c>
+      <c r="T58" t="s">
+        <v>61</v>
+      </c>
+      <c r="U58" t="s">
+        <v>62</v>
+      </c>
+      <c r="V58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>0.958556533625036</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>91</v>
+      </c>
+      <c r="K59">
+        <v>1.42861799217731</v>
+      </c>
+      <c r="L59">
+        <v>0.231803596327474</v>
+      </c>
+      <c r="M59">
+        <v>2.70791519471953</v>
+      </c>
+      <c r="N59">
+        <v>1.56990988151353</v>
+      </c>
+      <c r="O59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P59" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q59">
+        <v>1796445</v>
+      </c>
+      <c r="R59">
+        <v>5634016</v>
+      </c>
+      <c r="S59" t="s">
+        <v>60</v>
+      </c>
+      <c r="T59" t="s">
+        <v>61</v>
+      </c>
+      <c r="U59" t="s">
+        <v>62</v>
+      </c>
+      <c r="V59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>0.616737350238214</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>3.918</v>
+      </c>
+      <c r="K60">
+        <v>0.0209712918660287</v>
+      </c>
+      <c r="L60">
+        <v>-0.141706619521357</v>
+      </c>
+      <c r="M60">
+        <v>0.113351480033273</v>
+      </c>
+      <c r="N60">
+        <v>0.53525502465617</v>
+      </c>
+      <c r="O60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P60" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q60">
+        <v>1796445</v>
+      </c>
+      <c r="R60">
+        <v>5634016</v>
+      </c>
+      <c r="S60" t="s">
+        <v>60</v>
+      </c>
+      <c r="T60" t="s">
+        <v>61</v>
+      </c>
+      <c r="U60" t="s">
+        <v>62</v>
+      </c>
+      <c r="V60" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
